--- a/DL_config.xlsx
+++ b/DL_config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/我的雲端硬碟/HSCC/碩論/4_model/final_version/different_algo_layer3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zunzzz\Desktop\PCNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4C267-A80E-4877-BDE0-BAAE25A495F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YOLOv2" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="VGG16" sheetId="3" r:id="rId3"/>
     <sheet name="VGG19" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -330,8 +331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -400,6 +401,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -667,19 +671,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -735,7 +739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -802,7 +806,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -858,7 +862,7 @@
       </c>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
@@ -924,11 +928,11 @@
         <v>5914624</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S30" si="7">ROUND(P4/1000000000,3)</f>
+        <f t="shared" ref="S4:S28" si="7">ROUND(P4/1000000000,3)</f>
         <v>3.419</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -988,7 +992,7 @@
       </c>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1261,7 +1265,7 @@
       </c>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="1" customFormat="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1534,7 +1538,7 @@
       </c>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1747,7 +1751,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1949,7 +1953,7 @@
       </c>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2162,7 +2166,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>6.8140000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>6.8140000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>8.5180000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2593,20 +2597,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="11" width="15" customWidth="1"/>
     <col min="15" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2665,7 +2669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2706,8 +2710,7 @@
         <v>4</v>
       </c>
       <c r="M2">
-        <f>_xlfn.FLOOR.MATH(((I2-1)*L2+G2-D2)/2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <f>ROUNDUP(((I2-1)*L2+G2-D2)/2,0)</f>
@@ -2730,7 +2733,7 @@
         <v>290400</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>69984</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>186624</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>64896</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>64896</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>9216</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3296,11 +3299,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
@@ -3314,20 +3317,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="11" width="15" customWidth="1"/>
     <col min="13" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>86704128</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>1849688064</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="1" customFormat="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3590,7 +3593,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>924844032</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>1849688064</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3800,7 +3803,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>924844032</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>1849688064</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>1849688064</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="1" customFormat="1">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4086,7 +4089,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>924844032</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>1849688064</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>1849688064</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="1" customFormat="1">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4372,7 +4375,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4447,7 +4450,7 @@
         <v>462422016</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>462422016</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>462422016</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4655,7 +4658,7 @@
         <v>25088</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4797,16 +4800,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>179830784</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>3705798656</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5020,7 +5023,7 @@
       </c>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>1852899328</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>3702587392</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5181,7 +5184,7 @@
       </c>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>1851293696</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5291,7 +5294,7 @@
         <v>3700981760</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>3700981760</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>3700981760</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="1" customFormat="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5452,7 +5455,7 @@
       </c>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>1850490880</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>3700178944</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5617,7 +5620,7 @@
         <v>3700178944</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>3700178944</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" s="1" customFormat="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5723,7 +5726,7 @@
       </c>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>925044736</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>925044736</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>925044736</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>925044736</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" s="1" customFormat="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5994,7 +5997,7 @@
       </c>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>205516800</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>21</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>33550336</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>21</v>
       </c>
@@ -6075,5 +6078,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DL_config.xlsx
+++ b/DL_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zunzzz\Desktop\PCNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4C267-A80E-4877-BDE0-BAAE25A495F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC490A0-8F61-49CA-B21D-6DFEFF1E85D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,7 +2601,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -2704,7 +2704,7 @@
         <v>55</v>
       </c>
       <c r="K2">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -2718,11 +2718,11 @@
       </c>
       <c r="P2">
         <f>K2*(F2*G2*H2+1)</f>
-        <v>34944</v>
+        <v>23296</v>
       </c>
       <c r="Q2">
         <f>2*K2*I2*J2*(F2*G2*H2+1)</f>
-        <v>211411200</v>
+        <v>140940800</v>
       </c>
       <c r="R2">
         <f>D2*E2*F2</f>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="S2">
         <f>I2*J2*K2</f>
-        <v>290400</v>
+        <v>193600</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F3" s="1">
         <f>K2</f>
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -2770,7 +2770,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="1">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
@@ -2784,11 +2784,11 @@
       <c r="Q3"/>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R9" si="3">D3*E3*F3</f>
-        <v>290400</v>
+        <v>193600</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" ref="S3:S9" si="4">I3*J3*K3</f>
-        <v>69984</v>
+        <v>46656</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F12" si="6">K3</f>
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2828,7 +2828,7 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2843,19 +2843,19 @@
       </c>
       <c r="P4" s="1">
         <f t="shared" ref="P4:P8" si="8">K4*(F4*G4*H4+1)</f>
-        <v>614656</v>
+        <v>307392</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q8" si="9">2*K4*I4*J4*(F4*G4*H4+1)</f>
-        <v>896168448</v>
+        <v>448177536</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
-        <v>69984</v>
+        <v>46656</v>
       </c>
       <c r="S4">
         <f t="shared" si="4"/>
-        <v>186624</v>
+        <v>139968</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -2895,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="1">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -2909,11 +2909,11 @@
       <c r="Q5"/>
       <c r="R5" s="1">
         <f t="shared" si="3"/>
-        <v>186624</v>
+        <v>139968</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="4"/>
-        <v>43264</v>
+        <v>32448</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2968,15 +2968,15 @@
       </c>
       <c r="P6">
         <f t="shared" si="8"/>
-        <v>885120</v>
+        <v>663936</v>
       </c>
       <c r="Q6">
         <f t="shared" si="9"/>
-        <v>299170560</v>
+        <v>224410368</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>43264</v>
+        <v>32448</v>
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
@@ -3020,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="K7">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3035,11 +3035,11 @@
       </c>
       <c r="P7" s="1">
         <f t="shared" si="8"/>
-        <v>1327488</v>
+        <v>884992</v>
       </c>
       <c r="Q7">
         <f t="shared" si="9"/>
-        <v>448690944</v>
+        <v>299127296</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="S7">
         <f t="shared" si="4"/>
-        <v>64896</v>
+        <v>43264</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -3102,15 +3102,15 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" si="8"/>
-        <v>884992</v>
+        <v>590080</v>
       </c>
       <c r="Q8">
         <f t="shared" si="9"/>
-        <v>299127296</v>
+        <v>199447040</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>64896</v>
+        <v>43264</v>
       </c>
       <c r="S8">
         <f t="shared" si="4"/>

--- a/DL_config.xlsx
+++ b/DL_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zunzzz\Desktop\PCNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC490A0-8F61-49CA-B21D-6DFEFF1E85D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF42679-E14B-4071-BED5-210FDFBB4145}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YOLOv2" sheetId="1" r:id="rId1"/>
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -3320,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -4672,17 +4672,6 @@
         <f>I19*J19*K19</f>
         <v>25088</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
       <c r="K20">
         <v>4096</v>
       </c>
@@ -4717,17 +4706,6 @@
         <f t="shared" si="9"/>
         <v>4096</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
       <c r="K21">
         <v>4096</v>
       </c>
@@ -4761,17 +4739,6 @@
       <c r="F22">
         <f t="shared" si="9"/>
         <v>4096</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="11"/>
-        <v>1</v>
       </c>
       <c r="K22">
         <v>1000</v>
@@ -4804,7 +4771,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G23" sqref="G23:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
